--- a/door_hangers/door_hangers.xlsx
+++ b/door_hangers/door_hangers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,7 +96,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,13 +194,13 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="1" sqref="H97:I105 G25"/>
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.85"/>
@@ -1452,11 +1451,11 @@
   </sheetPr>
   <dimension ref="A1:J239"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J239" activeCellId="1" sqref="H97:I105 J239"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I208" activeCellId="0" sqref="I208"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
@@ -2282,8 +2281,7 @@
         <v>113.37</v>
       </c>
       <c r="I41" s="0" t="n">
-        <f aca="false">G41-H41</f>
-        <v>-113.37</v>
+        <v>113.37</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2526,7 +2524,6 @@
         <v>-38.73</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>0</v>
@@ -2797,7 +2794,7 @@
         <v>-410.3</v>
       </c>
     </row>
-    <row r="63" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>6</v>
@@ -3613,8 +3610,7 @@
         <v>113.37</v>
       </c>
       <c r="I105" s="0" t="n">
-        <f aca="false">G105-H105</f>
-        <v>-113.37</v>
+        <v>113.37</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,7 +4123,7 @@
         <v>-454.04</v>
       </c>
     </row>
-    <row r="127" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
         <v>7</v>
@@ -4943,8 +4939,7 @@
         <v>134.43</v>
       </c>
       <c r="I169" s="0" t="n">
-        <f aca="false">G169-H169</f>
-        <v>-134.43</v>
+        <v>134.43</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,7 +5452,7 @@
         <v>-563.62</v>
       </c>
     </row>
-    <row r="192" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
         <v>8</v>
@@ -6025,8 +6020,6 @@
         <v>-63.8600000000001</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H219" s="0" t="n">
         <v>261.57</v>
@@ -6036,7 +6029,7 @@
         <v>-261.57</v>
       </c>
       <c r="J219" s="0" t="n">
-        <v>-261.57</v>
+        <v>261.57</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,9 +6296,6 @@
         <v>-1165.5</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
         <v>8</v>
@@ -6621,14 +6611,14 @@
   </sheetPr>
   <dimension ref="A1:I93"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I69" activeCellId="1" sqref="H97:I105 I69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I69" activeCellId="0" sqref="I69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
@@ -7177,7 +7167,7 @@
         <v>137.68</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>6</v>
@@ -7718,7 +7708,7 @@
         <v>144.15</v>
       </c>
     </row>
-    <row r="47" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>7</v>
@@ -8259,7 +8249,7 @@
         <v>270.47</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>8</v>
@@ -8818,14 +8808,14 @@
   </sheetPr>
   <dimension ref="A1:I128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H120" activeCellId="1" sqref="H97:I105 H120"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I104" activeCellId="0" sqref="I104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.85"/>
@@ -9644,7 +9634,7 @@
         <v>-687.51</v>
       </c>
     </row>
-    <row r="35" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>6</v>
@@ -10455,7 +10445,7 @@
         <v>-166.77</v>
       </c>
     </row>
-    <row r="71" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" s="2" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>7</v>
@@ -11803,14 +11793,14 @@
   </sheetPr>
   <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H97" activeCellId="0" sqref="H97:I105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16"/>
@@ -14249,7 +14239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>8</v>
       </c>
@@ -14272,7 +14262,7 @@
         <v>261.57</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>8</v>
       </c>
@@ -14295,7 +14285,7 @@
         <v>276.96</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
@@ -14318,7 +14308,7 @@
         <v>307.72</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>8</v>
       </c>
@@ -14341,7 +14331,7 @@
         <v>466.45</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>8</v>
       </c>
@@ -14364,7 +14354,7 @@
         <v>735.3</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>8</v>
       </c>
@@ -14387,7 +14377,7 @@
         <v>1399.34</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>8</v>
       </c>
@@ -14410,7 +14400,7 @@
         <v>2000.23</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>8</v>
       </c>
@@ -14433,7 +14423,7 @@
         <v>2665.88</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>8</v>
       </c>
@@ -14456,7 +14446,7 @@
         <v>3158.26</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>8</v>
       </c>
@@ -14479,7 +14469,7 @@
         <v>261.57</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>8</v>
       </c>
@@ -14502,7 +14492,7 @@
         <v>276.96</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -14525,7 +14515,7 @@
         <v>307.72</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -14548,7 +14538,7 @@
         <v>466.45</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -14571,7 +14561,7 @@
         <v>735.3</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -14594,7 +14584,7 @@
         <v>1399.34</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -14617,7 +14607,7 @@
         <v>2000.23</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -14640,7 +14630,7 @@
         <v>2665.88</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -14663,7 +14653,7 @@
         <v>3158.26</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -14686,7 +14676,7 @@
         <v>261.57</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -14709,7 +14699,7 @@
         <v>276.96</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -14732,7 +14722,7 @@
         <v>307.72</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -14755,7 +14745,7 @@
         <v>466.45</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -14778,7 +14768,7 @@
         <v>735.3</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -14801,7 +14791,7 @@
         <v>1399.34</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -14824,7 +14814,7 @@
         <v>2000.23</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -14847,7 +14837,7 @@
         <v>2665.88</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
